--- a/poc-professionnel/ig/StructureDefinition-DiplomeEtudeSpecialisee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeEtudeSpecialisee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T11:52:46+00:00</t>
+    <t>2025-07-21T14:08:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-DiplomeEtudeSpecialisee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeEtudeSpecialisee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T14:08:48+00:00</t>
+    <t>2025-07-22T15:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-DiplomeEtudeSpecialisee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeEtudeSpecialisee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T15:23:11+00:00</t>
+    <t>2025-07-23T06:24:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -238,7 +238,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Le diplôme d'études spécialisées (DES) est délivré aux médecins, pharmaciens ou dentistes ayant effectué une formation de 3e cycle de 3 à 5 ans en fonction des spécialités et soutenu un mémoire. Cette formation correspond à l'internat. Avec les réformes successives adoptées depuis la fin des années 1990 (dont la création de l'internat et du DES de médecine générale), tous les nouveaux docteurs en médecine sont titulaires d'un DES, accompagnant leur diplôme d'État de docteur en médecine (commun à tous les médecins) et précisant leur spécialité.Le DES peut être complété par un diplôme d'études spécialisées complémentaires (DESC). Les DESC se décomposent en deux groupes: ** DESC non qualifiants (groupe 1) d’une durée de 2 ans : 1 an pendant l’internat et 1 an après la fin de l’internat (clinicat);** DESC qualifiants (groupe 2) ou DESCQ d’une durée de 3 ans : 2 ans pendant l’internat et 1 an après la fin de l’internat (clinicat).Dans le cadre du modèle, un DES est un type de diplôme. La classe DiplomeEtudesSpecialisees est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
+    <t>Le diplôme d'études spécialisées (DES) est délivré aux médecins, pharmaciens ou dentistes ayant effectué une formation de 3e cycle de 3 à 5 ans en fonction des spécialités et soutenu un mémoire. Cette formation correspond à l'internat. Avec les réformes successives adoptées depuis la fin des années 1990 (dont la création de l'internat et du DES de médecine générale), tous les nouveaux docteurs en médecine sont titulaires d'un DES, accompagnant leur diplôme d'État de docteur en médecine (commun à tous les médecins) et précisant leur spécialité.Le DES peut être complété par un diplôme d'études spécialisées complémentaires (DESC). Les DESC se décomposent en deux groupes: ** DESC non qualifiants (groupe 1) d’une durée de 2 ans : 1 an pendant l’internat et 1 an après la fin de l’internat (clinicat);** DESC qualifiants (groupe 2) ou DESCQ d’une durée de 3 ans : 2 ans pendant l’internat et 1 an après la fin de l’internat (clinicat).Dans le cadre du modèle, un DES est un type de diplôme. La classe DiplomeEtudesSpecialisees est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>Base</t>
@@ -254,7 +254,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Type de diplôme, par exemple:** DE : Diplôme d’Etat français** CES : Certificat d’Etudes Spéciales** DES : Diplôme d'Etudes Spécialisées** etc.</t>
+    <t>Type de diplôme, par exemple:** DE : Diplôme d’Etat français** CES : Certificat d’Etudes Spéciales** DES : Diplôme d'Etudes Spécialisées** etc.</t>
   </si>
   <si>
     <t>preferred</t>
@@ -269,7 +269,7 @@
     <t>DiplomeEtudeSpecialisee.lieuFormation</t>
   </si>
   <si>
-    <t xml:space="preserve"> Lieu de formation pour l'obtention du diplôme. Par exemple:** U37 : Université de Tours (Université François Rabelais)** UP5 : Université de Paris 05 (Université René Descartes).</t>
+    <t>Lieu de formation pour l'obtention du diplôme. Par exemple:** U37 : Université de Tours (Université François Rabelais)** UP5 : Université de Paris 05 (Université René Descartes).</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R16-LieuFormation?vs</t>
@@ -285,7 +285,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Date d’obtention du diplôme.</t>
+    <t>Date d’obtention du diplôme.</t>
   </si>
   <si>
     <t>Diplome.dateDiplome</t>
@@ -298,7 +298,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Numéro du diplôme.</t>
+    <t>Numéro du diplôme.</t>
   </si>
   <si>
     <t>Diplome.numeroDiplome</t>
@@ -307,7 +307,7 @@
     <t>DiplomeEtudeSpecialisee.diplomeEtudeSpecialisee</t>
   </si>
   <si>
-    <t xml:space="preserve"> Diplôme d'études spécialisées (DES).</t>
+    <t>Diplôme d'études spécialisées (DES).</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R49-DiplomeEtudeSpecialisee?vs</t>

--- a/poc-professionnel/ig/StructureDefinition-DiplomeEtudeSpecialisee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeEtudeSpecialisee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-23T06:24:09+00:00</t>
+    <t>2025-07-24T12:59:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-DiplomeEtudeSpecialisee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeEtudeSpecialisee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T12:59:21+00:00</t>
+    <t>2025-07-24T13:17:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-DiplomeEtudeSpecialisee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeEtudeSpecialisee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:17:05+00:00</t>
+    <t>2025-07-25T07:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,7 +260,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R14-TypeDiplome?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R14-TypeDiplome/FHIR/TRE-R14-TypeDiplome?vs</t>
   </si>
   <si>
     <t>Diplome.typeDiplome</t>
@@ -272,7 +272,7 @@
     <t>Lieu de formation pour l'obtention du diplôme. Par exemple:** U37 : Université de Tours (Université François Rabelais)** UP5 : Université de Paris 05 (Université René Descartes).</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R16-LieuFormation?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R16-LieuFormation/FHIR/TRE-R16-LieuFormation?vs</t>
   </si>
   <si>
     <t>Diplome.lieuFormation</t>
@@ -310,7 +310,7 @@
     <t>Diplôme d'études spécialisées (DES).</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R49-DiplomeEtudeSpecialisee?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R49-DiplomeEtudeSpecialisee/FHIR/TRE-R49-DiplomeEtudeSpecialisee?vs</t>
   </si>
 </sst>
 </file>
@@ -647,7 +647,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="76.16796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="88.1953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/poc-professionnel/ig/StructureDefinition-DiplomeEtudeSpecialisee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeEtudeSpecialisee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:22:51+00:00</t>
+    <t>2025-07-25T07:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-DiplomeEtudeSpecialisee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeEtudeSpecialisee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:53:56+00:00</t>
+    <t>2025-07-25T12:35:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-DiplomeEtudeSpecialisee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeEtudeSpecialisee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:35:19+00:00</t>
+    <t>2025-07-25T12:45:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-DiplomeEtudeSpecialisee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeEtudeSpecialisee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:45:05+00:00</t>
+    <t>2025-07-25T12:50:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-DiplomeEtudeSpecialisee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeEtudeSpecialisee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:50:30+00:00</t>
+    <t>2025-07-29T07:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-DiplomeEtudeSpecialisee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeEtudeSpecialisee.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="98">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T07:08:53+00:00</t>
+    <t>2025-07-31T13:33:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Le diplôme d'études spécialisées (DES) est délivré aux médecins, pharmaciens ou dentistes ayant effectué une formation de 3e cycle de 3 à 5 ans en fonction des spécialités et soutenu un mémoire. Cette formation correspond à l'internat. Avec les réformes successives adoptées depuis la fin des années 1990 (dont la création de l'internat et du DES de médecine générale), tous les nouveaux docteurs en médecine sont titulaires d'un DES, accompagnant leur diplôme d'État de docteur en médecine (commun à tous les médecins) et précisant leur spécialité.Le DES peut être complété par un diplôme d'études spécialisées complémentaires (DESC). Les DESC se décomposent en deux groupes: ** DESC non qualifiants (groupe 1) d’une durée de 2 ans : 1 an pendant l’internat et 1 an après la fin de l’internat (clinicat);** DESC qualifiants (groupe 2) ou DESCQ d’une durée de 3 ans : 2 ans pendant l’internat et 1 an après la fin de l’internat (clinicat).Dans le cadre du modèle, un DES est un type de diplôme. La classe DiplomeEtudesSpecialisees est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -236,9 +239,6 @@
   <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>Le diplôme d'études spécialisées (DES) est délivré aux médecins, pharmaciens ou dentistes ayant effectué une formation de 3e cycle de 3 à 5 ans en fonction des spécialités et soutenu un mémoire. Cette formation correspond à l'internat. Avec les réformes successives adoptées depuis la fin des années 1990 (dont la création de l'internat et du DES de médecine générale), tous les nouveaux docteurs en médecine sont titulaires d'un DES, accompagnant leur diplôme d'État de docteur en médecine (commun à tous les médecins) et précisant leur spécialité.Le DES peut être complété par un diplôme d'études spécialisées complémentaires (DESC). Les DESC se décomposent en deux groupes: ** DESC non qualifiants (groupe 1) d’une durée de 2 ans : 1 an pendant l’internat et 1 an après la fin de l’internat (clinicat);** DESC qualifiants (groupe 2) ou DESCQ d’une durée de 3 ans : 2 ans pendant l’internat et 1 an après la fin de l’internat (clinicat).Dans le cadre du modèle, un DES est un type de diplôme. La classe DiplomeEtudesSpecialisees est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>Base</t>
@@ -544,39 +544,41 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>3</v>
@@ -584,26 +586,26 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -661,112 +663,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
@@ -778,95 +780,95 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -878,23 +880,23 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>78</v>
@@ -908,26 +910,26 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X3" t="s" s="2">
         <v>80</v>
@@ -937,34 +939,34 @@
         <v>81</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -976,23 +978,23 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>78</v>
@@ -1006,26 +1008,26 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s" s="2">
         <v>80</v>
@@ -1035,34 +1037,34 @@
         <v>85</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1074,23 +1076,23 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>88</v>
@@ -1104,65 +1106,65 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1174,23 +1176,23 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>92</v>
@@ -1204,65 +1206,65 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -1274,23 +1276,23 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>78</v>
@@ -1304,26 +1306,26 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X7" t="s" s="2">
         <v>80</v>
@@ -1333,34 +1335,34 @@
         <v>97</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/poc-professionnel/ig/StructureDefinition-DiplomeEtudeSpecialisee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeEtudeSpecialisee.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/DiplomeEtudeSpecialisee</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/DiplomeEtudeSpecialisee</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T13:33:48+00:00</t>
+    <t>2025-10-13T08:05:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Diplome</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Diplome</t>
   </si>
   <si>
     <t>Abstract</t>
